--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.70731113705216</v>
+        <v>7.019285333333333</v>
       </c>
       <c r="H2">
-        <v>6.70731113705216</v>
+        <v>21.057856</v>
       </c>
       <c r="I2">
-        <v>0.04825257114241372</v>
+        <v>0.04775214676711106</v>
       </c>
       <c r="J2">
-        <v>0.04825257114241372</v>
+        <v>0.04775214676711106</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.81998029462475</v>
+        <v>3.201463666666667</v>
       </c>
       <c r="N2">
-        <v>2.81998029462475</v>
+        <v>9.604391</v>
       </c>
       <c r="O2">
-        <v>0.2985960299542318</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="P2">
-        <v>0.2985960299542318</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="Q2">
-        <v>18.91448523640422</v>
+        <v>22.47198696063289</v>
       </c>
       <c r="R2">
-        <v>18.91448523640422</v>
+        <v>202.247882645696</v>
       </c>
       <c r="S2">
-        <v>0.01440802617820887</v>
+        <v>0.01090648416009663</v>
       </c>
       <c r="T2">
-        <v>0.01440802617820887</v>
+        <v>0.01090648416009663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.70731113705216</v>
+        <v>7.019285333333333</v>
       </c>
       <c r="H3">
-        <v>6.70731113705216</v>
+        <v>21.057856</v>
       </c>
       <c r="I3">
-        <v>0.04825257114241372</v>
+        <v>0.04775214676711106</v>
       </c>
       <c r="J3">
-        <v>0.04825257114241372</v>
+        <v>0.04775214676711106</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.72114161540321</v>
+        <v>2.758130333333333</v>
       </c>
       <c r="N3">
-        <v>2.72114161540321</v>
+        <v>8.274391</v>
       </c>
       <c r="O3">
-        <v>0.2881304117094069</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="P3">
-        <v>0.2881304117094069</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="Q3">
-        <v>18.25154346249005</v>
+        <v>19.36010379618844</v>
       </c>
       <c r="R3">
-        <v>18.25154346249005</v>
+        <v>174.240934165696</v>
       </c>
       <c r="S3">
-        <v>0.01390303318930111</v>
+        <v>0.009396172477353961</v>
       </c>
       <c r="T3">
-        <v>0.01390303318930111</v>
+        <v>0.009396172477353961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.70731113705216</v>
+        <v>7.019285333333333</v>
       </c>
       <c r="H4">
-        <v>6.70731113705216</v>
+        <v>21.057856</v>
       </c>
       <c r="I4">
-        <v>0.04825257114241372</v>
+        <v>0.04775214676711106</v>
       </c>
       <c r="J4">
-        <v>0.04825257114241372</v>
+        <v>0.04775214676711106</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.90300999975326</v>
+        <v>0.4432716666666667</v>
       </c>
       <c r="N4">
-        <v>3.90300999975326</v>
+        <v>1.329815</v>
       </c>
       <c r="O4">
-        <v>0.4132735583363613</v>
+        <v>0.0316237426802848</v>
       </c>
       <c r="P4">
-        <v>0.4132735583363613</v>
+        <v>0.03162374268028481</v>
       </c>
       <c r="Q4">
-        <v>26.17870243937099</v>
+        <v>3.111450308515556</v>
       </c>
       <c r="R4">
-        <v>26.17870243937099</v>
+        <v>28.00305277664</v>
       </c>
       <c r="S4">
-        <v>0.01994151177490374</v>
+        <v>0.001510101601794314</v>
       </c>
       <c r="T4">
-        <v>0.01994151177490374</v>
+        <v>0.001510101601794314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>100.952585584477</v>
+        <v>7.019285333333333</v>
       </c>
       <c r="H5">
-        <v>100.952585584477</v>
+        <v>21.057856</v>
       </c>
       <c r="I5">
-        <v>0.726255531969622</v>
+        <v>0.04775214676711106</v>
       </c>
       <c r="J5">
-        <v>0.726255531969622</v>
+        <v>0.04775214676711106</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.81998029462475</v>
+        <v>7.614187000000001</v>
       </c>
       <c r="N5">
-        <v>2.81998029462475</v>
+        <v>22.842561</v>
       </c>
       <c r="O5">
-        <v>0.2985960299542318</v>
+        <v>0.5432088457587779</v>
       </c>
       <c r="P5">
-        <v>0.2985960299542318</v>
+        <v>0.543208845758778</v>
       </c>
       <c r="Q5">
-        <v>284.6843020396437</v>
+        <v>53.44615113435734</v>
       </c>
       <c r="R5">
-        <v>284.6843020396437</v>
+        <v>481.0153602092161</v>
       </c>
       <c r="S5">
-        <v>0.2168570185784278</v>
+        <v>0.02593938852786616</v>
       </c>
       <c r="T5">
-        <v>0.2168570185784278</v>
+        <v>0.02593938852786616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>100.952585584477</v>
+        <v>101.506841</v>
       </c>
       <c r="H6">
-        <v>100.952585584477</v>
+        <v>304.520523</v>
       </c>
       <c r="I6">
-        <v>0.726255531969622</v>
+        <v>0.6905502966633176</v>
       </c>
       <c r="J6">
-        <v>0.726255531969622</v>
+        <v>0.6905502966633176</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.72114161540321</v>
+        <v>3.201463666666667</v>
       </c>
       <c r="N6">
-        <v>2.72114161540321</v>
+        <v>9.604391</v>
       </c>
       <c r="O6">
-        <v>0.2881304117094069</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="P6">
-        <v>0.2881304117094069</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="Q6">
-        <v>274.7062818164746</v>
+        <v>324.9704633796104</v>
       </c>
       <c r="R6">
-        <v>274.7062818164746</v>
+        <v>2924.734170416493</v>
       </c>
       <c r="S6">
-        <v>0.2092563054326415</v>
+        <v>0.1577201525418277</v>
       </c>
       <c r="T6">
-        <v>0.2092563054326415</v>
+        <v>0.1577201525418277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>100.952585584477</v>
+        <v>101.506841</v>
       </c>
       <c r="H7">
-        <v>100.952585584477</v>
+        <v>304.520523</v>
       </c>
       <c r="I7">
-        <v>0.726255531969622</v>
+        <v>0.6905502966633176</v>
       </c>
       <c r="J7">
-        <v>0.726255531969622</v>
+        <v>0.6905502966633176</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.90300999975326</v>
+        <v>2.758130333333333</v>
       </c>
       <c r="N7">
-        <v>3.90300999975326</v>
+        <v>8.274391</v>
       </c>
       <c r="O7">
-        <v>0.4132735583363613</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="P7">
-        <v>0.4132735583363613</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="Q7">
-        <v>394.0189510371605</v>
+        <v>279.9690972029437</v>
       </c>
       <c r="R7">
-        <v>394.0189510371605</v>
+        <v>2519.721874826493</v>
       </c>
       <c r="S7">
-        <v>0.3001422079585527</v>
+        <v>0.1358793296431524</v>
       </c>
       <c r="T7">
-        <v>0.3001422079585527</v>
+        <v>0.1358793296431524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.3430314915691</v>
+        <v>101.506841</v>
       </c>
       <c r="H8">
-        <v>23.3430314915691</v>
+        <v>304.520523</v>
       </c>
       <c r="I8">
-        <v>0.1679303769739201</v>
+        <v>0.6905502966633176</v>
       </c>
       <c r="J8">
-        <v>0.1679303769739201</v>
+        <v>0.6905502966633176</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.81998029462475</v>
+        <v>0.4432716666666667</v>
       </c>
       <c r="N8">
-        <v>2.81998029462475</v>
+        <v>1.329815</v>
       </c>
       <c r="O8">
-        <v>0.2985960299542318</v>
+        <v>0.0316237426802848</v>
       </c>
       <c r="P8">
-        <v>0.2985960299542318</v>
+        <v>0.03162374268028481</v>
       </c>
       <c r="Q8">
-        <v>65.82688882302985</v>
+        <v>44.99510658813834</v>
       </c>
       <c r="R8">
-        <v>65.82688882302985</v>
+        <v>404.955959293245</v>
       </c>
       <c r="S8">
-        <v>0.0501433438731301</v>
+        <v>0.02183778488947509</v>
       </c>
       <c r="T8">
-        <v>0.0501433438731301</v>
+        <v>0.02183778488947509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.3430314915691</v>
+        <v>101.506841</v>
       </c>
       <c r="H9">
-        <v>23.3430314915691</v>
+        <v>304.520523</v>
       </c>
       <c r="I9">
-        <v>0.1679303769739201</v>
+        <v>0.6905502966633176</v>
       </c>
       <c r="J9">
-        <v>0.1679303769739201</v>
+        <v>0.6905502966633176</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.72114161540321</v>
+        <v>7.614187000000001</v>
       </c>
       <c r="N9">
-        <v>2.72114161540321</v>
+        <v>22.842561</v>
       </c>
       <c r="O9">
-        <v>0.2881304117094069</v>
+        <v>0.5432088457587779</v>
       </c>
       <c r="P9">
-        <v>0.2881304117094069</v>
+        <v>0.543208845758778</v>
       </c>
       <c r="Q9">
-        <v>63.51969442137634</v>
+        <v>772.8920691532671</v>
       </c>
       <c r="R9">
-        <v>63.51969442137634</v>
+        <v>6956.028622379405</v>
       </c>
       <c r="S9">
-        <v>0.0483858486560115</v>
+        <v>0.3751130295888624</v>
       </c>
       <c r="T9">
-        <v>0.0483858486560115</v>
+        <v>0.3751130295888625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.3430314915691</v>
+        <v>28.868883</v>
       </c>
       <c r="H10">
-        <v>23.3430314915691</v>
+        <v>86.606649</v>
       </c>
       <c r="I10">
-        <v>0.1679303769739201</v>
+        <v>0.1963947998341176</v>
       </c>
       <c r="J10">
-        <v>0.1679303769739201</v>
+        <v>0.1963947998341176</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.90300999975326</v>
+        <v>3.201463666666667</v>
       </c>
       <c r="N10">
-        <v>3.90300999975326</v>
+        <v>9.604391</v>
       </c>
       <c r="O10">
-        <v>0.4132735583363613</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="P10">
-        <v>0.4132735583363613</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="Q10">
-        <v>91.10808533614946</v>
+        <v>92.42268002175101</v>
       </c>
       <c r="R10">
-        <v>91.10808533614946</v>
+        <v>831.804120195759</v>
       </c>
       <c r="S10">
-        <v>0.06940118444477851</v>
+        <v>0.04485613566155778</v>
       </c>
       <c r="T10">
-        <v>0.06940118444477851</v>
+        <v>0.04485613566155778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.001294323687389</v>
+        <v>28.868883</v>
       </c>
       <c r="H11">
-        <v>8.001294323687389</v>
+        <v>86.606649</v>
       </c>
       <c r="I11">
-        <v>0.05756151991404398</v>
+        <v>0.1963947998341176</v>
       </c>
       <c r="J11">
-        <v>0.05756151991404398</v>
+        <v>0.1963947998341176</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.81998029462475</v>
+        <v>2.758130333333333</v>
       </c>
       <c r="N11">
-        <v>2.81998029462475</v>
+        <v>8.274391</v>
       </c>
       <c r="O11">
-        <v>0.2985960299542318</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="P11">
-        <v>0.2985960299542318</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="Q11">
-        <v>22.5634923242913</v>
+        <v>79.62414189175099</v>
       </c>
       <c r="R11">
-        <v>22.5634923242913</v>
+        <v>716.617277025759</v>
       </c>
       <c r="S11">
-        <v>0.01718764132446499</v>
+        <v>0.0386445330279424</v>
       </c>
       <c r="T11">
-        <v>0.01718764132446499</v>
+        <v>0.0386445330279424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.001294323687389</v>
+        <v>28.868883</v>
       </c>
       <c r="H12">
-        <v>8.001294323687389</v>
+        <v>86.606649</v>
       </c>
       <c r="I12">
-        <v>0.05756151991404398</v>
+        <v>0.1963947998341176</v>
       </c>
       <c r="J12">
-        <v>0.05756151991404398</v>
+        <v>0.1963947998341176</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.72114161540321</v>
+        <v>0.4432716666666667</v>
       </c>
       <c r="N12">
-        <v>2.72114161540321</v>
+        <v>1.329815</v>
       </c>
       <c r="O12">
-        <v>0.2881304117094069</v>
+        <v>0.0316237426802848</v>
       </c>
       <c r="P12">
-        <v>0.2881304117094069</v>
+        <v>0.03162374268028481</v>
       </c>
       <c r="Q12">
-        <v>21.77265496127524</v>
+        <v>12.796757882215</v>
       </c>
       <c r="R12">
-        <v>21.77265496127524</v>
+        <v>115.170820939935</v>
       </c>
       <c r="S12">
-        <v>0.01658522443145272</v>
+        <v>0.006210738613700176</v>
       </c>
       <c r="T12">
-        <v>0.01658522443145272</v>
+        <v>0.006210738613700178</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.001294323687389</v>
+        <v>28.868883</v>
       </c>
       <c r="H13">
-        <v>8.001294323687389</v>
+        <v>86.606649</v>
       </c>
       <c r="I13">
-        <v>0.05756151991404398</v>
+        <v>0.1963947998341176</v>
       </c>
       <c r="J13">
-        <v>0.05756151991404398</v>
+        <v>0.1963947998341176</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.90300999975326</v>
+        <v>7.614187000000001</v>
       </c>
       <c r="N13">
-        <v>3.90300999975326</v>
+        <v>22.842561</v>
       </c>
       <c r="O13">
-        <v>0.4132735583363613</v>
+        <v>0.5432088457587779</v>
       </c>
       <c r="P13">
-        <v>0.4132735583363613</v>
+        <v>0.543208845758778</v>
       </c>
       <c r="Q13">
-        <v>31.22913175632088</v>
+        <v>219.813073643121</v>
       </c>
       <c r="R13">
-        <v>31.22913175632088</v>
+        <v>1978.317662788089</v>
       </c>
       <c r="S13">
-        <v>0.02378865415812628</v>
+        <v>0.1066833925309173</v>
       </c>
       <c r="T13">
-        <v>0.02378865415812628</v>
+        <v>0.1066833925309173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.599121999999999</v>
+      </c>
+      <c r="H14">
+        <v>28.797366</v>
+      </c>
+      <c r="I14">
+        <v>0.0653027567354537</v>
+      </c>
+      <c r="J14">
+        <v>0.0653027567354537</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.201463666666667</v>
+      </c>
+      <c r="N14">
+        <v>9.604391</v>
+      </c>
+      <c r="O14">
+        <v>0.2283977768222221</v>
+      </c>
+      <c r="P14">
+        <v>0.2283977768222221</v>
+      </c>
+      <c r="Q14">
+        <v>30.73124031490067</v>
+      </c>
+      <c r="R14">
+        <v>276.581162834106</v>
+      </c>
+      <c r="S14">
+        <v>0.01491500445874002</v>
+      </c>
+      <c r="T14">
+        <v>0.01491500445874002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.599121999999999</v>
+      </c>
+      <c r="H15">
+        <v>28.797366</v>
+      </c>
+      <c r="I15">
+        <v>0.0653027567354537</v>
+      </c>
+      <c r="J15">
+        <v>0.0653027567354537</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.758130333333333</v>
+      </c>
+      <c r="N15">
+        <v>8.274391</v>
+      </c>
+      <c r="O15">
+        <v>0.1967696347387151</v>
+      </c>
+      <c r="P15">
+        <v>0.1967696347387151</v>
+      </c>
+      <c r="Q15">
+        <v>26.47562956156733</v>
+      </c>
+      <c r="R15">
+        <v>238.280666054106</v>
+      </c>
+      <c r="S15">
+        <v>0.01284959959026639</v>
+      </c>
+      <c r="T15">
+        <v>0.01284959959026639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.599121999999999</v>
+      </c>
+      <c r="H16">
+        <v>28.797366</v>
+      </c>
+      <c r="I16">
+        <v>0.0653027567354537</v>
+      </c>
+      <c r="J16">
+        <v>0.0653027567354537</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.4432716666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.329815</v>
+      </c>
+      <c r="O16">
+        <v>0.0316237426802848</v>
+      </c>
+      <c r="P16">
+        <v>0.03162374268028481</v>
+      </c>
+      <c r="Q16">
+        <v>4.255018807476667</v>
+      </c>
+      <c r="R16">
+        <v>38.29516926729</v>
+      </c>
+      <c r="S16">
+        <v>0.002065117575315223</v>
+      </c>
+      <c r="T16">
+        <v>0.002065117575315224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.599121999999999</v>
+      </c>
+      <c r="H17">
+        <v>28.797366</v>
+      </c>
+      <c r="I17">
+        <v>0.0653027567354537</v>
+      </c>
+      <c r="J17">
+        <v>0.0653027567354537</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.614187000000001</v>
+      </c>
+      <c r="N17">
+        <v>22.842561</v>
+      </c>
+      <c r="O17">
+        <v>0.5432088457587779</v>
+      </c>
+      <c r="P17">
+        <v>0.543208845758778</v>
+      </c>
+      <c r="Q17">
+        <v>73.08950994381401</v>
+      </c>
+      <c r="R17">
+        <v>657.8055894943261</v>
+      </c>
+      <c r="S17">
+        <v>0.03547303511113207</v>
+      </c>
+      <c r="T17">
+        <v>0.03547303511113208</v>
       </c>
     </row>
   </sheetData>
